--- a/JavaScript/Google AppsScript Compiler/JS Compiler.xlsx
+++ b/JavaScript/Google AppsScript Compiler/JS Compiler.xlsx
@@ -6,6 +6,7 @@
     <sheet state="visible" name="Productions" sheetId="1" r:id="rId5"/>
     <sheet state="visible" name="Table" sheetId="2" r:id="rId6"/>
     <sheet state="visible" name="Sets" sheetId="3" r:id="rId7"/>
+    <sheet state="visible" name="Accept" sheetId="4" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2841" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="276">
   <si>
     <t>*Goal</t>
   </si>
@@ -298,6 +299,549 @@
   </si>
   <si>
     <t>First +:</t>
+  </si>
+  <si>
+    <t>int32 good = 777</t>
+  </si>
+  <si>
+    <t>int32 bad = 666</t>
+  </si>
+  <si>
+    <t>int32 separator = 11111111</t>
+  </si>
+  <si>
+    <t>int32 var1 = 2</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var1</t>
+  </si>
+  <si>
+    <t>if (var1 == var1) {</t>
+  </si>
+  <si>
+    <t>&lt;&lt; good</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>&lt;&lt; separator</t>
+  </si>
+  <si>
+    <t>int32 var2 = var1 + var1</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var2</t>
+  </si>
+  <si>
+    <t>if (var1 == var2) {</t>
+  </si>
+  <si>
+    <t>&lt;&lt; bad</t>
+  </si>
+  <si>
+    <t>if (var1 &lt; var2) {</t>
+  </si>
+  <si>
+    <t>int32 var3 = -2</t>
+  </si>
+  <si>
+    <t>int32 var4 = -1</t>
+  </si>
+  <si>
+    <t>if (var3 &lt; var4) {</t>
+  </si>
+  <si>
+    <t>if (var4 &lt; var3) {</t>
+  </si>
+  <si>
+    <t>} else {</t>
+  </si>
+  <si>
+    <t>int32 newVarA = 1234</t>
+  </si>
+  <si>
+    <t>&lt;&lt; newVarA</t>
+  </si>
+  <si>
+    <t>int32 newVarB = 2345</t>
+  </si>
+  <si>
+    <t>&lt;&lt; newVarB</t>
+  </si>
+  <si>
+    <t>var1 = 2</t>
+  </si>
+  <si>
+    <t>var2 = var1 + var1</t>
+  </si>
+  <si>
+    <t>var3 = var1 * var2</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var3</t>
+  </si>
+  <si>
+    <t>var4 = var3 - var2</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var4</t>
+  </si>
+  <si>
+    <t>int32 var5 = var4 / var3</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var5</t>
+  </si>
+  <si>
+    <t>int32 var6 = var1 + var2 * var3</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var6</t>
+  </si>
+  <si>
+    <t>int32 var7 = var4-var1</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var7</t>
+  </si>
+  <si>
+    <t>int32 var8 = 3*4</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var8</t>
+  </si>
+  <si>
+    <t>int32 var9 = 12 / 6</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var9</t>
+  </si>
+  <si>
+    <t>int32 var10 = 12/6</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var10</t>
+  </si>
+  <si>
+    <t>int32 var11 = 5 + 4 * 3</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var11</t>
+  </si>
+  <si>
+    <t>int32 var12 = 12 + 34 * 45</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var12</t>
+  </si>
+  <si>
+    <t>int32 var13 = (6 / 5)</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var13</t>
+  </si>
+  <si>
+    <t>int32 var14 = 2 * 2 + 5 * 5</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var14</t>
+  </si>
+  <si>
+    <t>int32 var15 = 42</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var15</t>
+  </si>
+  <si>
+    <t>int32 var16 = (42)</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var16</t>
+  </si>
+  <si>
+    <t>int32 var17 = ((42))</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var17</t>
+  </si>
+  <si>
+    <t>int32 var18 = ( ( 42 ) )</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var18</t>
+  </si>
+  <si>
+    <t>int32 var19 = var1</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var19</t>
+  </si>
+  <si>
+    <t>int32 var20 = var1 + var19</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var20</t>
+  </si>
+  <si>
+    <t>int32 var21 = var1 + var2</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var21</t>
+  </si>
+  <si>
+    <t>int32 var22 = var9 * var10</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var22</t>
+  </si>
+  <si>
+    <t>int32 var23 = var1+var2*var3</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var23</t>
+  </si>
+  <si>
+    <t>int32 var24 = var19-var20</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var24</t>
+  </si>
+  <si>
+    <t>int32 var25 = 1234*5678</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var25</t>
+  </si>
+  <si>
+    <t>int32 var26 = 100000/var13</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var26</t>
+  </si>
+  <si>
+    <t>int32 var27 = ((12-8)-3)</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var27</t>
+  </si>
+  <si>
+    <t>int32 var28 = (5*(8/4))</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var28</t>
+  </si>
+  <si>
+    <t>int32 var29 = (1+2) * 3</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var29</t>
+  </si>
+  <si>
+    <t>int32 var30 = ((var1/var2)+(var3*var4))</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var30</t>
+  </si>
+  <si>
+    <t>int32 a = 1</t>
+  </si>
+  <si>
+    <t>int32 a_ = 2</t>
+  </si>
+  <si>
+    <t>int32 v_____2 = 2</t>
+  </si>
+  <si>
+    <t>int32 v__3__ = 3</t>
+  </si>
+  <si>
+    <t>int32 var31 = a_</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var31</t>
+  </si>
+  <si>
+    <t>int32 var32 = (a_)</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var32</t>
+  </si>
+  <si>
+    <t>int32 var33 = (v_____2 + v__3__)</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var33</t>
+  </si>
+  <si>
+    <t>int32 var34 = (((( 300 + var1 ))))</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var34</t>
+  </si>
+  <si>
+    <t>int32 var35 = ( var33 -var2) + 18</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var35</t>
+  </si>
+  <si>
+    <t>int32 var36 = (((((9+(2*(110-(30/2))))*8)+1000)/2)+(((3*3*3*3)+1)/2))</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var36</t>
+  </si>
+  <si>
+    <t>int32 var37 = 2 + 3</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var37</t>
+  </si>
+  <si>
+    <t>int32 var38 = ( var1 +var2)</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var38</t>
+  </si>
+  <si>
+    <t>int32 var39 = -42</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var39</t>
+  </si>
+  <si>
+    <t>int32 var40 = (-42)</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var40</t>
+  </si>
+  <si>
+    <t>int32 var41 = ( -42)</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var41</t>
+  </si>
+  <si>
+    <t>int32 var42 = -var1</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var42</t>
+  </si>
+  <si>
+    <t>int32 var43 = -1 * var1 / -1</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var43</t>
+  </si>
+  <si>
+    <t>int32 var44 = 2-3</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var44</t>
+  </si>
+  <si>
+    <t>int32 var45 = 2 - 3</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var45</t>
+  </si>
+  <si>
+    <t>int32 var46 = 2 - -3</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var46</t>
+  </si>
+  <si>
+    <t>int32 var47 = 2- -3</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var47</t>
+  </si>
+  <si>
+    <t>int32 var48 = -2-3</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var48</t>
+  </si>
+  <si>
+    <t>int32 var49 = -2- -3</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var49</t>
+  </si>
+  <si>
+    <t>int32 var50 = -2 - -3</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var50</t>
+  </si>
+  <si>
+    <t>int32 var51 = (-2 - -3)</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var51</t>
+  </si>
+  <si>
+    <t>int32 var52 = ( -2 - -3)</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var52</t>
+  </si>
+  <si>
+    <t>int32 var53 = -2-(-3)</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var53</t>
+  </si>
+  <si>
+    <t>int32 var54 = -2-( -3)</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var54</t>
+  </si>
+  <si>
+    <t>int32 var55 = -2 - (-3)</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var55</t>
+  </si>
+  <si>
+    <t>int32 var56 = -2 - (-3 - (4))</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var56</t>
+  </si>
+  <si>
+    <t>int32 var57 = -2 - (-3 - (4))</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var57</t>
+  </si>
+  <si>
+    <t>int32 var58 = -2 - ( -3 -( -4))</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var58</t>
+  </si>
+  <si>
+    <t>int32 var59 = -2-(-2-(-2-2))</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var59</t>
+  </si>
+  <si>
+    <t>int32 var60 = -2 - (-2 - (-2 - 2))</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var60</t>
+  </si>
+  <si>
+    <t>int32 var61 = -11-(-22 - (-33-(-44 - (-55 - (-66)))))</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var61</t>
+  </si>
+  <si>
+    <t>int32 var62 = 2--3</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var62</t>
+  </si>
+  <si>
+    <t>int32 var63 = 2+-3</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var63</t>
+  </si>
+  <si>
+    <t>int32 var64 = 184 +- 84</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var64</t>
+  </si>
+  <si>
+    <t>int32 var65 = 2--a</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var65</t>
+  </si>
+  <si>
+    <t>int32 var66 = 2+-a</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var66</t>
+  </si>
+  <si>
+    <t>int32 var67 = 2 + - 4</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var67</t>
+  </si>
+  <si>
+    <t>int32 var68 = 2 + - 4</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var68</t>
+  </si>
+  <si>
+    <t>int32 var69 = 2 +- 4</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var69</t>
+  </si>
+  <si>
+    <t>int32 var70 = 4 * 3 / 2 + 1</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var70</t>
+  </si>
+  <si>
+    <t>int32 four = 4</t>
+  </si>
+  <si>
+    <t>int32 three = 3</t>
+  </si>
+  <si>
+    <t>int32 two = 2</t>
+  </si>
+  <si>
+    <t>int32 one = 1</t>
+  </si>
+  <si>
+    <t>int32 var71 = four * three / two + one</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var71</t>
+  </si>
+  <si>
+    <t>int32 var72 = 4 * 3 / 2 + one</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var72</t>
+  </si>
+  <si>
+    <t>int32 var73 = (((2+3)*4)+(7+(8/2)))</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var73</t>
+  </si>
+  <si>
+    <t>int32 var74 = (((2+3)*4)+(7+(var1/2)))</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var74</t>
+  </si>
+  <si>
+    <t>int32 var75 = 1234</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var75</t>
+  </si>
+  <si>
+    <t>int32 var76=314</t>
+  </si>
+  <si>
+    <t>&lt;&lt; var76</t>
   </si>
 </sst>
 </file>
@@ -358,6 +902,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -9418,4 +9966,1129 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>